--- a/Data/EC/NIT-9009535345.xlsx
+++ b/Data/EC/NIT-9009535345.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE529ED-5132-4AF6-9494-8F813B0AFB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C278B35C-928E-42CF-B04B-091EBC3D8B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E3629AF-6E3A-4A73-ACCC-FB370DCEB08B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{358A704B-6472-4AB5-B19C-0D6CE762FB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,55 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9237371</t>
+  </si>
+  <si>
+    <t>EDWIN MAURICIO LOPEZ GARCIA</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>45544166</t>
+  </si>
+  <si>
+    <t>AURA MARIA NARANJO HERAZOG</t>
+  </si>
+  <si>
     <t>1143350028</t>
   </si>
   <si>
     <t>KAREN LISSET LOPEZ BARRIOS</t>
   </si>
   <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>397021</t>
+  </si>
+  <si>
+    <t>PABLO SECADES ARANGO</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>9237371</t>
-  </si>
-  <si>
-    <t>EDWIN MAURICIO LOPEZ GARCIA</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>45544166</t>
-  </si>
-  <si>
-    <t>AURA MARIA NARANJO HERAZOG</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>397021</t>
-  </si>
-  <si>
-    <t>PABLO SECADES ARANGO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,13 +512,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D47C13-7306-40D0-80A9-0D3B52DFD661}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09F1A95-85AA-300F-822E-16D7BCFF3616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +549,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B343A154-9239-4557-B53A-EDAE4DEFC587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B52E76-4B62-4529-BE71-7AAF14C6D7A2}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -889,7 +889,7 @@
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -1056,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>78163</v>
+        <v>86960</v>
       </c>
       <c r="G16" s="18">
-        <v>2791524</v>
+        <v>2566924</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1070,19 +1070,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>111661</v>
+        <v>153846</v>
       </c>
       <c r="G17" s="18">
-        <v>2791524</v>
+        <v>3846154</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1093,13 +1093,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>111661</v>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>111661</v>
+        <v>336000</v>
       </c>
       <c r="G19" s="18">
-        <v>2791524</v>
+        <v>12000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1139,13 +1139,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
         <v>111661</v>
@@ -1159,22 +1159,22 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>111661</v>
+        <v>336000</v>
       </c>
       <c r="G21" s="18">
-        <v>2791524</v>
+        <v>12000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1185,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>111661</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>18</v>
@@ -1214,13 +1214,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>86960</v>
+        <v>336000</v>
       </c>
       <c r="G23" s="18">
-        <v>2174000</v>
+        <v>12000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1231,19 +1231,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F24" s="18">
-        <v>153846</v>
+        <v>111661</v>
       </c>
       <c r="G24" s="18">
-        <v>3846154</v>
+        <v>2791524</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1251,19 +1251,19 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>235200</v>
+        <v>336000</v>
       </c>
       <c r="G25" s="18">
         <v>12000000</v>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" s="18">
-        <v>336000</v>
+        <v>111661</v>
       </c>
       <c r="G26" s="18">
-        <v>12000000</v>
+        <v>2791524</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F27" s="18">
         <v>336000</v>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F28" s="18">
-        <v>336000</v>
+        <v>111661</v>
       </c>
       <c r="G28" s="18">
-        <v>12000000</v>
+        <v>2791524</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F29" s="18">
         <v>336000</v>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F30" s="18">
-        <v>336000</v>
+        <v>78163</v>
       </c>
       <c r="G30" s="18">
-        <v>12000000</v>
+        <v>2791524</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F31" s="24">
-        <v>336000</v>
+        <v>235200</v>
       </c>
       <c r="G31" s="24">
         <v>12000000</v>

--- a/Data/EC/NIT-9009535345.xlsx
+++ b/Data/EC/NIT-9009535345.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C278B35C-928E-42CF-B04B-091EBC3D8B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6179ED8-BF5D-44B3-8BAC-BD704C4BD10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{358A704B-6472-4AB5-B19C-0D6CE762FB9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CFA05202-4E8D-4AD3-9921-B6EBBB13F598}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -227,7 +225,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,29 +421,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,19 +462,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,13 +518,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>496450</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -527,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09F1A95-85AA-300F-822E-16D7BCFF3616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E846AA-DFF6-5925-D963-4302B9DBF98E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +555,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750450" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -878,80 +884,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B52E76-4B62-4529-BE71-7AAF14C6D7A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F0D551-4ABA-4499-9016-E50D2CD1D6BB}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -961,13 +967,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009535345</v>
       </c>
@@ -977,13 +983,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>3240135</v>
       </c>
@@ -993,8 +999,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1019,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1052,20 +1058,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>86960</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>2566924</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1075,20 +1081,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>153846</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>3846154</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1098,20 +1104,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>111661</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>2791524</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>17</v>
       </c>
@@ -1121,20 +1127,20 @@
       <c r="D19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>336000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>12000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1144,20 +1150,20 @@
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>111661</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>2791524</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>17</v>
       </c>
@@ -1167,20 +1173,20 @@
       <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>336000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>12000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1190,20 +1196,20 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>111661</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>2791524</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
@@ -1213,20 +1219,20 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>336000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>12000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1236,20 +1242,20 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>111661</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>2791524</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
@@ -1259,20 +1265,20 @@
       <c r="D25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>336000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>12000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1282,20 +1288,20 @@
       <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>111661</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>2791524</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>17</v>
       </c>
@@ -1305,20 +1311,20 @@
       <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>336000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>12000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1328,20 +1334,20 @@
       <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>111661</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>2791524</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>17</v>
       </c>
@@ -1351,20 +1357,20 @@
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>336000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>12000000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1374,58 +1380,58 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>78163</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>2791524</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="21" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="26">
         <v>235200</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="26">
         <v>12000000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="32" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="32" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>36</v>
       </c>
